--- a/src/main/resources/assets/Menu_coffeeShop.xlsx
+++ b/src/main/resources/assets/Menu_coffeeShop.xlsx
@@ -1,41 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26911"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-audrs\Desktop\Excel Templates\Accessibility Project\2017January\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90E08CB0-3DA7-4B8D-8989-432DCB5F21D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="List"/>
   </sheets>
   <definedNames>
     <definedName name="ColumnTitle1">List[[#Headers],[Item]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">List!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -189,75 +167,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="4"/>
+      <color rgb="FF1c639e"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="19"/>
-      <color theme="1" tint="0.14996795556505021"/>
+      <color rgb="FF262626"/>
       <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.14990691854609822"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Arial"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF595959"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="4"/>
+      <color rgb="FF1c639e"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF1C639E"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,7 +225,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -277,134 +241,97 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="5">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+  <cellXfs count="18">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Date" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="1" tint="0.34998626667073579"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1" tint="0.14996795556505021"/>
-      </font>
-      <border>
-        <top style="thick">
-          <color theme="4"/>
-        </top>
-        <bottom style="medium">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color theme="4"/>
-      </font>
-      <border>
-        <horizontal style="medium">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="Tasks" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Tasks" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="firstColumn" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="List" displayName="List" ref="B3:D45" totalsRowShown="0">
-  <autoFilter ref="B3:D45" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B3:D45" displayName="List" name="List" id="1" totalsRowShown="0">
+  <autoFilter ref="B3:D45"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Item" dataCellStyle="Date"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="                             Price"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description"/>
+    <tableColumn name="Item" id="1"/>
+    <tableColumn name="                             Price" id="2"/>
+    <tableColumn name="Description" id="3"/>
   </tableColumns>
-  <tableStyleInfo name="Tasks" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter date, item and notes for a list of tasks"/>
-    </ext>
-  </extLst>
+  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="1"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="List">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1A1124"/>
@@ -431,82 +358,82 @@
         <a:srgbClr val="2A8F6B"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1CA1C4"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="5F528A"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Arial">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="굴림"/>
-        <a:font script="Hans" typeface="黑体"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="굴림"/>
-        <a:font script="Hans" typeface="黑体"/>
-        <a:font script="Hant" typeface="微軟正黑體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -518,514 +445,608 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4"/>
-    <pageSetUpPr fitToPage="1"/>
+    <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="B1:D45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="2.625" customWidth="1"/>
+    <col min="1" max="1" style="14" width="2.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="16" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="17" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="26.25" customHeight="1">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="2:4" ht="24">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="27.75">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" ht="22.15" customHeight="1">
-      <c r="B3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="30" customHeight="1">
-      <c r="B4" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A4" s="4"/>
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" ht="30" customHeight="1">
-      <c r="B5" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" customHeight="1">
-      <c r="B6" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>4.5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="30" customHeight="1">
-      <c r="B7" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="30" customHeight="1">
-      <c r="B8" t="s">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A8" s="4"/>
+      <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="11">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="30" customHeight="1">
-      <c r="B9" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A9" s="4"/>
+      <c r="B9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="30" customHeight="1">
-      <c r="B10" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A10" s="4"/>
+      <c r="B10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="30" customHeight="1">
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" ht="30" customHeight="1">
-      <c r="B12" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A11" s="4"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A12" s="4"/>
+      <c r="B12" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" ht="30" customHeight="1">
-      <c r="B13" s="1" t="s">
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A13" s="4"/>
+      <c r="B13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="11">
         <v>5</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:4" ht="30" customHeight="1">
-      <c r="B14" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5" customFormat="1" s="6">
+      <c r="A14" s="4"/>
+      <c r="B14" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="11">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="30" customHeight="1">
-      <c r="B15" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
+      <c r="A15" s="4"/>
+      <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="11">
         <v>4</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="30" customHeight="1">
-      <c r="B16" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A16" s="4"/>
+      <c r="B16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="11">
         <v>6</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" customHeight="1">
-      <c r="B17" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A17" s="4"/>
+      <c r="B17" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="11">
         <v>4.5</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="30" customHeight="1">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" ht="30" customHeight="1">
-      <c r="B19" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A18" s="4"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A19" s="4"/>
+      <c r="B19" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" ht="30" customHeight="1">
-      <c r="B20" s="1" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A20" s="4"/>
+      <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="11">
         <v>3.5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="30" customHeight="1">
-      <c r="B21" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A21" s="4"/>
+      <c r="B21" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="11">
         <v>3.5</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="30" customHeight="1">
-      <c r="B22" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A22" s="4"/>
+      <c r="B22" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="11">
         <v>3.5</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="30" customHeight="1">
-      <c r="B23" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A23" s="4"/>
+      <c r="B23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="11">
         <v>3.5</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="30" customHeight="1">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1">
-      <c r="B25" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A24" s="4"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A25" s="4"/>
+      <c r="B25" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="30" customHeight="1">
-      <c r="B26" s="1" t="s">
+      <c r="C25" s="3"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A26" s="4"/>
+      <c r="B26" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="11">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" customHeight="1">
-      <c r="B27" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A27" s="4"/>
+      <c r="B27" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="11">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="30" customHeight="1">
-      <c r="B28" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A28" s="4"/>
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="11">
         <v>1.5</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="30" customHeight="1">
-      <c r="B29" s="1"/>
-      <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="2:4" ht="30" customHeight="1">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" ht="30" customHeight="1">
-      <c r="B31" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A30" s="4"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A31" s="4"/>
+      <c r="B31" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" ht="30" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A32" s="4"/>
+      <c r="B32" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="30" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="D32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A33" s="4"/>
+      <c r="B33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="11">
         <v>2.99</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="30" customHeight="1">
-      <c r="B34" s="1" t="s">
+      <c r="D33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A34" s="4"/>
+      <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="30" customHeight="1">
-      <c r="B35" s="1" t="s">
+      <c r="D34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A35" s="4"/>
+      <c r="B35" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="30" customHeight="1">
-      <c r="B36" s="1" t="s">
+      <c r="D35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A36" s="4"/>
+      <c r="B36" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="30" customHeight="1">
-      <c r="B37" s="1" t="s">
+      <c r="D36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A37" s="4"/>
+      <c r="B37" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="30" customHeight="1">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" ht="30" customHeight="1">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" ht="30" customHeight="1">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" ht="30" customHeight="1">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" ht="30" customHeight="1">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" ht="30" customHeight="1">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" ht="30" customHeight="1">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" ht="30" customHeight="1">
-      <c r="B45" s="1"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A39" s="4"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A40" s="4"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A41" s="4"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A42" s="4"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A43" s="4"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A44" s="4"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="30" customFormat="1" s="6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="122" yWindow="396" count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Notes in this column under this heading" sqref="D3" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter task Item in this column under this heading" sqref="C3" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in this column under this heading. Use heading filters to find specific entries" sqref="B8" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a Task or Title in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="C1:D2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a List of tasks in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.25" right="0.25" top="0.36" bottom="0.25" header="0.3" footer="0.3"/>
-  <pageSetup fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="200" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/src/main/resources/assets/Menu_coffeeShop.xlsx
+++ b/src/main/resources/assets/Menu_coffeeShop.xlsx
@@ -83,7 +83,7 @@
     <t>Iced Mocha</t>
   </si>
   <si>
-    <t>Espresso, chocolate, milk, and ice.</t>
+    <t>Muff</t>
   </si>
   <si>
     <t>Iced Coffee</t>
@@ -169,7 +169,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +185,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="19"/>
       <color rgb="FF262626"/>
@@ -193,7 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -244,57 +250,54 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="7" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -620,7 +623,7 @@
     <col min="1" max="1" style="14" width="2.5764285714285715" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="16" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="14" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -637,7 +640,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A3" s="4"/>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -657,7 +660,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A5" s="4"/>
       <c r="B5" s="10" t="s">
         <v>5</v>
@@ -669,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A6" s="4"/>
       <c r="B6" s="10" t="s">
         <v>7</v>
@@ -681,7 +684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A7" s="4"/>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -693,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A8" s="4"/>
       <c r="B8" s="7" t="s">
         <v>11</v>
@@ -705,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A9" s="4"/>
       <c r="B9" s="10" t="s">
         <v>13</v>
@@ -717,7 +720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A10" s="4"/>
       <c r="B10" s="10" t="s">
         <v>15</v>
@@ -743,7 +746,7 @@
       <c r="C12" s="3"/>
       <c r="D12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A13" s="4"/>
       <c r="B13" s="10" t="s">
         <v>18</v>

--- a/src/main/resources/assets/Menu_coffeeShop.xlsx
+++ b/src/main/resources/assets/Menu_coffeeShop.xlsx
@@ -178,6 +178,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color rgb="FF1c639e"/>
@@ -186,7 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -195,12 +201,6 @@
       <sz val="19"/>
       <color rgb="FF262626"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -250,30 +250,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
@@ -282,9 +279,6 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf xfId="0" numFmtId="14" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -292,13 +286,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="14" width="2.5764285714285715" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="15" width="17.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="16" width="23.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="14" width="29.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="2.5764285714285715" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="13" width="17.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="14" width="23.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="29.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
@@ -642,19 +636,19 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A3" s="4"/>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="3"/>
@@ -662,85 +656,85 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A5" s="4"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A6" s="4"/>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="3">
         <v>4.5</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A7" s="4"/>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <v>5</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A8" s="4"/>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A9" s="4"/>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A10" s="4"/>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A11" s="4"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A12" s="4"/>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="3"/>
@@ -748,135 +742,135 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="33" customFormat="1" s="6">
       <c r="A13" s="4"/>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="3">
         <v>5</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="28.5" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A14" s="4"/>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="3">
         <v>6</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A15" s="4"/>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33.75" customFormat="1" s="6">
       <c r="A16" s="4"/>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="3">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75" customFormat="1" s="6">
       <c r="A17" s="4"/>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="3">
         <v>4.5</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A18" s="4"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="3"/>
       <c r="D18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A19" s="4"/>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A20" s="4"/>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="3">
         <v>3.5</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="30" customFormat="1" s="6">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5" customFormat="1" s="6">
       <c r="A21" s="4"/>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="3">
         <v>3.5</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A22" s="4"/>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="3">
         <v>3.5</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A23" s="4"/>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="3">
         <v>3.5</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A24" s="4"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3"/>
       <c r="D24" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A25" s="4"/>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C25" s="3"/>
@@ -884,55 +878,55 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A26" s="4"/>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A27" s="4"/>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="3">
         <v>3</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A28" s="4"/>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="3">
         <v>1.5</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A29" s="4"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A30" s="4"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="10"/>
       <c r="C30" s="3"/>
       <c r="D30" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A31" s="4"/>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="3"/>
@@ -940,109 +934,109 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A32" s="4"/>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="3">
         <v>1</v>
       </c>
       <c r="D32" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A33" s="4"/>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="3">
         <v>2.99</v>
       </c>
       <c r="D33" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A34" s="4"/>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="3">
         <v>1</v>
       </c>
       <c r="D34" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A35" s="4"/>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="3">
         <v>1</v>
       </c>
       <c r="D35" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A36" s="4"/>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A37" s="4"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="3">
         <v>1</v>
       </c>
       <c r="D37" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A38" s="4"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="10"/>
       <c r="C38" s="3"/>
       <c r="D38" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A39" s="4"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="3"/>
       <c r="D39" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A40" s="4"/>
-      <c r="B40" s="12"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3"/>
       <c r="D40" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A41" s="4"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="3"/>
       <c r="D41" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A42" s="4"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="10"/>
       <c r="C42" s="3"/>
       <c r="D42" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A43" s="4"/>
-      <c r="B43" s="12"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="3"/>
       <c r="D43" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A44" s="4"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="30" customFormat="1" s="6">
       <c r="A45" s="4"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4"/>
     </row>
